--- a/Code/Results/Cases/Case_2_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.155419740319644</v>
+        <v>0.7078968762894533</v>
       </c>
       <c r="C2">
-        <v>0.6434456256277201</v>
+        <v>0.1948319280674866</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2495465234392356</v>
+        <v>0.4616680946494185</v>
       </c>
       <c r="F2">
-        <v>1.620062881642681</v>
+        <v>2.083719068667207</v>
       </c>
       <c r="G2">
-        <v>0.640260730179449</v>
+        <v>0.562933965054583</v>
       </c>
       <c r="H2">
-        <v>0.4009808304153211</v>
+        <v>0.6548121233266926</v>
       </c>
       <c r="I2">
-        <v>0.2815593792488116</v>
+        <v>0.4718468106774516</v>
       </c>
       <c r="J2">
-        <v>0.01318517523793261</v>
+        <v>0.03454636694597069</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8887246561252766</v>
+        <v>0.5287727573242975</v>
       </c>
       <c r="N2">
-        <v>0.577030279066669</v>
+        <v>1.100234547277548</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.870020174489582</v>
+        <v>0.6239939310265186</v>
       </c>
       <c r="C3">
-        <v>0.5588978415814267</v>
+        <v>0.1697473505300877</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.231084942776306</v>
+        <v>0.4593142221044602</v>
       </c>
       <c r="F3">
-        <v>1.478282353680925</v>
+        <v>2.064027292413527</v>
       </c>
       <c r="G3">
-        <v>0.5757995378029932</v>
+        <v>0.5523729490152647</v>
       </c>
       <c r="H3">
-        <v>0.3786138615452046</v>
+        <v>0.6550972489497866</v>
       </c>
       <c r="I3">
-        <v>0.2716231991202847</v>
+        <v>0.4744858103288117</v>
       </c>
       <c r="J3">
-        <v>0.01434150267231127</v>
+        <v>0.03513548234085517</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7743315637665233</v>
+        <v>0.4991156385457813</v>
       </c>
       <c r="N3">
-        <v>0.6126437947868659</v>
+        <v>1.114557498325748</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.695577292552912</v>
+        <v>0.5724980932049277</v>
       </c>
       <c r="C4">
-        <v>0.507282587366376</v>
+        <v>0.1543125334117974</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2200120084367043</v>
+        <v>0.4580330418800642</v>
       </c>
       <c r="F4">
-        <v>1.394232412830291</v>
+        <v>2.053207255336829</v>
       </c>
       <c r="G4">
-        <v>0.5379730038816888</v>
+        <v>0.5464143512934356</v>
       </c>
       <c r="H4">
-        <v>0.3658886394722174</v>
+        <v>0.6556995105600407</v>
       </c>
       <c r="I4">
-        <v>0.2664794772134123</v>
+        <v>0.4764763834131429</v>
       </c>
       <c r="J4">
-        <v>0.01509799114760213</v>
+        <v>0.03551774972382393</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7047042438005278</v>
+        <v>0.4811173420663692</v>
       </c>
       <c r="N4">
-        <v>0.6356357178414171</v>
+        <v>1.12384518782391</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.624647821983274</v>
+        <v>0.5515188867303209</v>
       </c>
       <c r="C5">
-        <v>0.4863078989424992</v>
+        <v>0.1480144567486832</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2155614008712021</v>
+        <v>0.4575522895644504</v>
       </c>
       <c r="F5">
-        <v>1.360678519020254</v>
+        <v>2.049117104669847</v>
       </c>
       <c r="G5">
-        <v>0.5229615580664699</v>
+        <v>0.5441177429705988</v>
       </c>
       <c r="H5">
-        <v>0.360939264776917</v>
+        <v>0.6560521571000066</v>
       </c>
       <c r="I5">
-        <v>0.2646081844463346</v>
+        <v>0.4773803667398759</v>
       </c>
       <c r="J5">
-        <v>0.01541742634862109</v>
+        <v>0.03567868378512173</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.676464191300731</v>
+        <v>0.4738362143664219</v>
       </c>
       <c r="N5">
-        <v>0.6452781707057156</v>
+        <v>1.127753973411153</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.612878366878391</v>
+        <v>0.548035668843653</v>
       </c>
       <c r="C6">
-        <v>0.4828281856258059</v>
+        <v>0.1469681663381266</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2148259864828184</v>
+        <v>0.4574749599472021</v>
       </c>
       <c r="F6">
-        <v>1.355147392548062</v>
+        <v>2.048457198262838</v>
       </c>
       <c r="G6">
-        <v>0.5204922144499022</v>
+        <v>0.5437443195986731</v>
       </c>
       <c r="H6">
-        <v>0.3601312099992526</v>
+        <v>0.6561171837615092</v>
       </c>
       <c r="I6">
-        <v>0.2643105904551604</v>
+        <v>0.4775360695581909</v>
       </c>
       <c r="J6">
-        <v>0.01547112745565693</v>
+        <v>0.03570571794238653</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.671782467732541</v>
+        <v>0.472630415061829</v>
       </c>
       <c r="N6">
-        <v>0.6468955083321539</v>
+        <v>1.128410509986821</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.694620129175064</v>
+        <v>0.5722151362670616</v>
       </c>
       <c r="C7">
-        <v>0.5069994968619937</v>
+        <v>0.1542276288275275</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2199517416629213</v>
+        <v>0.4580263908089606</v>
       </c>
       <c r="F7">
-        <v>1.393777144898365</v>
+        <v>2.053150802700358</v>
       </c>
       <c r="G7">
-        <v>0.5377689698377992</v>
+        <v>0.5463828466102001</v>
       </c>
       <c r="H7">
-        <v>0.3658209559047663</v>
+        <v>0.6557038326145346</v>
       </c>
       <c r="I7">
-        <v>0.266453350297013</v>
+        <v>0.4764881994501522</v>
       </c>
       <c r="J7">
-        <v>0.01510225465384041</v>
+        <v>0.03551989926950538</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7043228727706108</v>
+        <v>0.4810189300670302</v>
       </c>
       <c r="N7">
-        <v>0.6357646662963532</v>
+        <v>1.123897401200917</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.056822923262303</v>
+        <v>0.6789630780717744</v>
       </c>
       <c r="C8">
-        <v>0.6142219134725906</v>
+        <v>0.1861895507846043</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2431237883132198</v>
+        <v>0.4608224609782354</v>
       </c>
       <c r="F8">
-        <v>1.570517278732453</v>
+        <v>2.076665307762568</v>
       </c>
       <c r="G8">
-        <v>0.6176473005259737</v>
+        <v>0.5591829626984719</v>
       </c>
       <c r="H8">
-        <v>0.3930487115377588</v>
+        <v>0.6548216473436526</v>
       </c>
       <c r="I8">
-        <v>0.2779248743450431</v>
+        <v>0.4726797266591767</v>
       </c>
       <c r="J8">
-        <v>0.01357389461483827</v>
+        <v>0.03474522320259954</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8491428052951733</v>
+        <v>0.5185032333260438</v>
       </c>
       <c r="N8">
-        <v>0.5890701893274795</v>
+        <v>1.105070661741674</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.77548272078468</v>
+        <v>0.8884497822485855</v>
       </c>
       <c r="C9">
-        <v>0.8276278358476077</v>
+        <v>0.248610651525297</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2908588506488385</v>
+        <v>0.4676051683522573</v>
       </c>
       <c r="F9">
-        <v>1.943775121166325</v>
+        <v>2.132886102750703</v>
       </c>
       <c r="G9">
-        <v>0.7900265584113129</v>
+        <v>0.588489437321627</v>
       </c>
       <c r="H9">
-        <v>0.4552814345851317</v>
+        <v>0.6564912915756054</v>
       </c>
       <c r="I9">
-        <v>0.3087835747257657</v>
+        <v>0.4681621083632592</v>
       </c>
       <c r="J9">
-        <v>0.01097158068240756</v>
+        <v>0.03338955243337915</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.138957521452113</v>
+        <v>0.5936822029872246</v>
       </c>
       <c r="N9">
-        <v>0.5069039655646215</v>
+        <v>1.072069060816144</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.311786901115397</v>
+        <v>1.042453988174486</v>
       </c>
       <c r="C10">
-        <v>0.9875349330484653</v>
+        <v>0.2943253505405323</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3276501595275647</v>
+        <v>0.473378412918251</v>
       </c>
       <c r="F10">
-        <v>2.238559254533371</v>
+        <v>2.180397772793668</v>
       </c>
       <c r="G10">
-        <v>0.9290336460374675</v>
+        <v>0.6126329785488736</v>
       </c>
       <c r="H10">
-        <v>0.507661663038121</v>
+        <v>0.659805704984592</v>
       </c>
       <c r="I10">
-        <v>0.3377111382530202</v>
+        <v>0.4666608708035014</v>
       </c>
       <c r="J10">
-        <v>0.009339411796391417</v>
+        <v>0.03249374936624871</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.356930869791967</v>
+        <v>0.6499364827538869</v>
       </c>
       <c r="N10">
-        <v>0.4529775142003416</v>
+        <v>1.050214902129827</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.558357766269751</v>
+        <v>1.112536092403559</v>
       </c>
       <c r="C11">
-        <v>1.061256270958637</v>
+        <v>0.3150928848662602</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3448398879479768</v>
+        <v>0.4761759448825629</v>
       </c>
       <c r="F11">
-        <v>2.378180851762096</v>
+        <v>2.203369647812238</v>
       </c>
       <c r="G11">
-        <v>0.9956355330925959</v>
+        <v>0.6241942915337262</v>
       </c>
       <c r="H11">
-        <v>0.5332487604743363</v>
+        <v>0.6617702433513841</v>
       </c>
       <c r="I11">
-        <v>0.3525132216138687</v>
+        <v>0.4663767915339676</v>
       </c>
       <c r="J11">
-        <v>0.008667344062438076</v>
+        <v>0.03210810447428303</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.45755725690465</v>
+        <v>0.6757501602928642</v>
       </c>
       <c r="N11">
-        <v>0.4300174659793043</v>
+        <v>1.040793214191964</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.65217405163736</v>
+        <v>1.139077670180029</v>
       </c>
       <c r="C12">
-        <v>1.08934086988873</v>
+        <v>0.3229530379656183</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3514215492703983</v>
+        <v>0.4772598701401662</v>
       </c>
       <c r="F12">
-        <v>2.431942968586554</v>
+        <v>2.212264519284901</v>
       </c>
       <c r="G12">
-        <v>1.021402833738762</v>
+        <v>0.6286562143237404</v>
       </c>
       <c r="H12">
-        <v>0.5432197247090329</v>
+        <v>0.6625801044551594</v>
       </c>
       <c r="I12">
-        <v>0.3583808147669458</v>
+        <v>0.466326900573435</v>
       </c>
       <c r="J12">
-        <v>0.008423886618589727</v>
+        <v>0.03196522549586422</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.495906808986518</v>
+        <v>0.685557153759774</v>
       </c>
       <c r="N12">
-        <v>0.4215652326901882</v>
+        <v>1.037300334876534</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.631948030156138</v>
+        <v>1.133361341728175</v>
       </c>
       <c r="C13">
-        <v>1.083284417583513</v>
+        <v>0.3212603938201539</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3500007353798082</v>
+        <v>0.4770253361367409</v>
       </c>
       <c r="F13">
-        <v>2.420323100384437</v>
+        <v>2.210340126966557</v>
       </c>
       <c r="G13">
-        <v>1.015828014476341</v>
+        <v>0.627691515836247</v>
       </c>
       <c r="H13">
-        <v>0.541059283701685</v>
+        <v>0.6624027500406697</v>
       </c>
       <c r="I13">
-        <v>0.3571050120974277</v>
+        <v>0.4663350747057464</v>
       </c>
       <c r="J13">
-        <v>0.008475812950954342</v>
+        <v>0.03199585645342662</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.487636107400689</v>
+        <v>0.6834436260145509</v>
       </c>
       <c r="N13">
-        <v>0.4233745235301889</v>
+        <v>1.038049254843521</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.566066734303888</v>
+        <v>1.114719626941962</v>
       </c>
       <c r="C14">
-        <v>1.063563276650541</v>
+        <v>0.3157396257266214</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3453798733536146</v>
+        <v>0.4762646282069696</v>
       </c>
       <c r="F14">
-        <v>2.382585463416561</v>
+        <v>2.204097504473282</v>
       </c>
       <c r="G14">
-        <v>0.997744090251885</v>
+        <v>0.6245596907542392</v>
       </c>
       <c r="H14">
-        <v>0.5340632578010229</v>
+        <v>0.6618355482971197</v>
       </c>
       <c r="I14">
-        <v>0.3529905353206502</v>
+        <v>0.4663715290086188</v>
       </c>
       <c r="J14">
-        <v>0.008647087838680179</v>
+        <v>0.03209628640221185</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.460707195054098</v>
+        <v>0.6765563490778419</v>
       </c>
       <c r="N14">
-        <v>0.4293171422819064</v>
+        <v>1.040504350724721</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.525772744680864</v>
+        <v>1.103301413214695</v>
       </c>
       <c r="C15">
-        <v>1.051506231676626</v>
+        <v>0.3123574672617337</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3425590980673121</v>
+        <v>0.4758018692215487</v>
       </c>
       <c r="F15">
-        <v>2.359589046963848</v>
+        <v>2.200299249316657</v>
       </c>
       <c r="G15">
-        <v>0.986740305694596</v>
+        <v>0.6226523064857616</v>
       </c>
       <c r="H15">
-        <v>0.529815573801045</v>
+        <v>0.6614967146270487</v>
       </c>
       <c r="I15">
-        <v>0.3505052849345347</v>
+        <v>0.4664013802790521</v>
       </c>
       <c r="J15">
-        <v>0.008753465136599026</v>
+        <v>0.0321582140825063</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.444245344557146</v>
+        <v>0.672341843352612</v>
       </c>
       <c r="N15">
-        <v>0.4329892229742889</v>
+        <v>1.04201792785091</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.2957312069301</v>
+        <v>1.037874408996458</v>
       </c>
       <c r="C16">
-        <v>0.9827390272082823</v>
+        <v>0.292967574422704</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3265364830115232</v>
+        <v>0.4731990280769622</v>
       </c>
       <c r="F16">
-        <v>2.229553813305799</v>
+        <v>2.178923892475012</v>
       </c>
       <c r="G16">
-        <v>0.9247540109610242</v>
+        <v>0.6118891200861754</v>
       </c>
       <c r="H16">
-        <v>0.5060272772884389</v>
+        <v>0.6596865306965043</v>
       </c>
       <c r="I16">
-        <v>0.3367790232981704</v>
+        <v>0.4666874900090079</v>
       </c>
       <c r="J16">
-        <v>0.009384825994660062</v>
+        <v>0.03251939315157948</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.350387033584525</v>
+        <v>0.6482539749360967</v>
       </c>
       <c r="N16">
-        <v>0.454510985482365</v>
+        <v>1.050841105706787</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.155323288032548</v>
+        <v>0.997743015256674</v>
       </c>
       <c r="C17">
-        <v>0.9408217559648335</v>
+        <v>0.2810652583083311</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3168280582446812</v>
+        <v>0.4716460847558821</v>
       </c>
       <c r="F17">
-        <v>2.151261641464387</v>
+        <v>2.166159164025302</v>
       </c>
       <c r="G17">
-        <v>0.8876323678043434</v>
+        <v>0.6054348995154584</v>
       </c>
       <c r="H17">
-        <v>0.4919040655401687</v>
+        <v>0.6586932124970701</v>
       </c>
       <c r="I17">
-        <v>0.3287970055098413</v>
+        <v>0.4669653968835732</v>
       </c>
       <c r="J17">
-        <v>0.009790802229165951</v>
+        <v>0.03274657290599281</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.293206976415107</v>
+        <v>0.6335339035435368</v>
       </c>
       <c r="N17">
-        <v>0.4681274812375982</v>
+        <v>1.056387098978263</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.074804780934699</v>
+        <v>0.9746628683333824</v>
       </c>
       <c r="C18">
-        <v>0.9168023971767525</v>
+        <v>0.2742166953857463</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3112862209644689</v>
+        <v>0.4707689959410217</v>
       </c>
       <c r="F18">
-        <v>2.106743615159715</v>
+        <v>2.158945071866881</v>
       </c>
       <c r="G18">
-        <v>0.8665938119541607</v>
+        <v>0.6017769896696308</v>
       </c>
       <c r="H18">
-        <v>0.4839444650587978</v>
+        <v>0.6581648629972392</v>
       </c>
       <c r="I18">
-        <v>0.3243588851718897</v>
+        <v>0.4671627625335617</v>
       </c>
       <c r="J18">
-        <v>0.01003087676608772</v>
+        <v>0.03287929751995833</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.260454639048845</v>
+        <v>0.6250883398561768</v>
       </c>
       <c r="N18">
-        <v>0.4761061759257821</v>
+        <v>1.059625931617624</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.047581839273164</v>
+        <v>0.96684875134099</v>
       </c>
       <c r="C19">
-        <v>0.9086845881766692</v>
+        <v>0.2718974315822891</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3094168902558394</v>
+        <v>0.4704747999075778</v>
       </c>
       <c r="F19">
-        <v>2.091755992394837</v>
+        <v>2.156524444266452</v>
       </c>
       <c r="G19">
-        <v>0.8595224396635359</v>
+        <v>0.6005478025804507</v>
       </c>
       <c r="H19">
-        <v>0.4812767647123763</v>
+        <v>0.657993347462039</v>
       </c>
       <c r="I19">
-        <v>0.3228817217397975</v>
+        <v>0.4672360213563849</v>
       </c>
       <c r="J19">
-        <v>0.01011326351716102</v>
+        <v>0.03292458866615444</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.24938767688991</v>
+        <v>0.6222324355045146</v>
       </c>
       <c r="N19">
-        <v>0.4788323734880926</v>
+        <v>1.060730942920326</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.170244576915024</v>
+        <v>1.002014829512632</v>
       </c>
       <c r="C20">
-        <v>0.9452743823099468</v>
+        <v>0.2823325559845387</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3178571204585197</v>
+        <v>0.4718097300192028</v>
       </c>
       <c r="F20">
-        <v>2.15954215650163</v>
+        <v>2.167504755949565</v>
       </c>
       <c r="G20">
-        <v>0.8915512195724915</v>
+        <v>0.6061163280488131</v>
       </c>
       <c r="H20">
-        <v>0.4933903640146013</v>
+        <v>0.6587945027736168</v>
       </c>
       <c r="I20">
-        <v>0.3296306961622193</v>
+        <v>0.4669319275477335</v>
       </c>
       <c r="J20">
-        <v>0.009746899298329836</v>
+        <v>0.03272217626639984</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.299279572504147</v>
+        <v>0.6350987049893746</v>
       </c>
       <c r="N20">
-        <v>0.466662670706075</v>
+        <v>1.055791653991019</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.585404984515776</v>
+        <v>1.120195073334969</v>
       </c>
       <c r="C21">
-        <v>1.06935106578095</v>
+        <v>0.3173613192815594</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3467351107261152</v>
+        <v>0.4764874005158717</v>
       </c>
       <c r="F21">
-        <v>2.393644942805238</v>
+        <v>2.205925792302708</v>
       </c>
       <c r="G21">
-        <v>1.003040414520484</v>
+        <v>0.6254773005959322</v>
       </c>
       <c r="H21">
-        <v>0.5361102725021141</v>
+        <v>0.6620003578208298</v>
       </c>
       <c r="I21">
-        <v>0.3541917157801748</v>
+        <v>0.4663592533349075</v>
       </c>
       <c r="J21">
-        <v>0.008596472871737149</v>
+        <v>0.03206670192560468</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.468609952036843</v>
+        <v>0.6785784447056074</v>
       </c>
       <c r="N21">
-        <v>0.4275649396759817</v>
+        <v>1.03978119529642</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.859369605360939</v>
+        <v>1.197449958001243</v>
       </c>
       <c r="C22">
-        <v>1.151435852025116</v>
+        <v>0.3402309736580378</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3660336717823824</v>
+        <v>0.4796876568279203</v>
       </c>
       <c r="F22">
-        <v>2.55188633994365</v>
+        <v>2.23217840106318</v>
       </c>
       <c r="G22">
-        <v>1.079124580115945</v>
+        <v>0.6386202226570106</v>
       </c>
       <c r="H22">
-        <v>0.5656874811856198</v>
+        <v>0.6644799934041998</v>
       </c>
       <c r="I22">
-        <v>0.3717869932634557</v>
+        <v>0.466321356704988</v>
       </c>
       <c r="J22">
-        <v>0.007909446981786417</v>
+        <v>0.03165671537366599</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.580720235987897</v>
+        <v>0.7071808965346946</v>
       </c>
       <c r="N22">
-        <v>0.4034329215668997</v>
+        <v>1.029754138680943</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.7128833138799</v>
+        <v>1.156216176973885</v>
       </c>
       <c r="C23">
-        <v>1.107525025706849</v>
+        <v>0.3280271706014162</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3556922379899632</v>
+        <v>0.4779665450012658</v>
       </c>
       <c r="F23">
-        <v>2.46691605649977</v>
+        <v>2.218062188542376</v>
       </c>
       <c r="G23">
-        <v>1.038200194806592</v>
+        <v>0.6315605698861333</v>
       </c>
       <c r="H23">
-        <v>0.5497396909369172</v>
+        <v>0.663121308511009</v>
       </c>
       <c r="I23">
-        <v>0.3622455612496793</v>
+        <v>0.4663106945363182</v>
       </c>
       <c r="J23">
-        <v>0.008269864979934205</v>
+        <v>0.03187384467484033</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.520740976927897</v>
+        <v>0.6918982825354334</v>
       </c>
       <c r="N23">
-        <v>0.4161768724968837</v>
+        <v>1.035065757613506</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.163498032456062</v>
+        <v>1.000083567398633</v>
       </c>
       <c r="C24">
-        <v>0.9432611045247938</v>
+        <v>0.281759628662428</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3173917584125689</v>
+        <v>0.4717356970274693</v>
       </c>
       <c r="F24">
-        <v>2.155797006654183</v>
+        <v>2.166896026001538</v>
       </c>
       <c r="G24">
-        <v>0.8897785670251892</v>
+        <v>0.6058080900829452</v>
       </c>
       <c r="H24">
-        <v>0.4927179121795149</v>
+        <v>0.6587485763735117</v>
       </c>
       <c r="I24">
-        <v>0.3292533167059517</v>
+        <v>0.4669469419542267</v>
       </c>
       <c r="J24">
-        <v>0.009766727095184446</v>
+        <v>0.03273319939676078</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.296533776653035</v>
+        <v>0.6343912046613553</v>
       </c>
       <c r="N24">
-        <v>0.4673244443294102</v>
+        <v>1.0560606977809</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.579855592187982</v>
+        <v>0.8317615546712886</v>
       </c>
       <c r="C25">
-        <v>0.7694418579937405</v>
+        <v>0.2317504768931826</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2776679930934876</v>
+        <v>0.4656313728744621</v>
       </c>
       <c r="F25">
-        <v>1.839522145718306</v>
+        <v>2.116590172454536</v>
       </c>
       <c r="G25">
-        <v>0.7414371038620686</v>
+        <v>0.5801060481821736</v>
       </c>
       <c r="H25">
-        <v>0.4373750066479971</v>
+        <v>0.6556740891696364</v>
       </c>
       <c r="I25">
-        <v>0.2994264729948171</v>
+        <v>0.4690663846528906</v>
       </c>
       <c r="J25">
-        <v>0.01162949251109691</v>
+        <v>0.03373874022975176</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.059784720369834</v>
+        <v>0.5731651910737767</v>
       </c>
       <c r="N25">
-        <v>0.5280559574185268</v>
+        <v>1.08057708726961</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7078968762894533</v>
+        <v>2.155419740319644</v>
       </c>
       <c r="C2">
-        <v>0.1948319280674866</v>
+        <v>0.6434456256277201</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4616680946494185</v>
+        <v>0.2495465234392285</v>
       </c>
       <c r="F2">
-        <v>2.083719068667207</v>
+        <v>1.620062881642696</v>
       </c>
       <c r="G2">
-        <v>0.562933965054583</v>
+        <v>0.6402607301795342</v>
       </c>
       <c r="H2">
-        <v>0.6548121233266926</v>
+        <v>0.4009808304153211</v>
       </c>
       <c r="I2">
-        <v>0.4718468106774516</v>
+        <v>0.2815593792488187</v>
       </c>
       <c r="J2">
-        <v>0.03454636694597069</v>
+        <v>0.01318517523791929</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5287727573242975</v>
+        <v>0.8887246561252766</v>
       </c>
       <c r="N2">
-        <v>1.100234547277548</v>
+        <v>0.5770302790666726</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6239939310265186</v>
+        <v>1.870020174489611</v>
       </c>
       <c r="C3">
-        <v>0.1697473505300877</v>
+        <v>0.5588978415812846</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.4593142221044602</v>
+        <v>0.2310849427762989</v>
       </c>
       <c r="F3">
-        <v>2.064027292413527</v>
+        <v>1.478282353680953</v>
       </c>
       <c r="G3">
-        <v>0.5523729490152647</v>
+        <v>0.57579953780305</v>
       </c>
       <c r="H3">
-        <v>0.6550972489497866</v>
+        <v>0.3786138615450909</v>
       </c>
       <c r="I3">
-        <v>0.4744858103288117</v>
+        <v>0.2716231991202953</v>
       </c>
       <c r="J3">
-        <v>0.03513548234085517</v>
+        <v>0.01434150267228596</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4991156385457813</v>
+        <v>0.7743315637665091</v>
       </c>
       <c r="N3">
-        <v>1.114557498325748</v>
+        <v>0.6126437947868624</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5724980932049277</v>
+        <v>1.695577292552798</v>
       </c>
       <c r="C4">
-        <v>0.1543125334117974</v>
+        <v>0.5072825873664897</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4580330418800642</v>
+        <v>0.2200120084366688</v>
       </c>
       <c r="F4">
-        <v>2.053207255336829</v>
+        <v>1.394232412830277</v>
       </c>
       <c r="G4">
-        <v>0.5464143512934356</v>
+        <v>0.5379730038817314</v>
       </c>
       <c r="H4">
-        <v>0.6556995105600407</v>
+        <v>0.3658886394722316</v>
       </c>
       <c r="I4">
-        <v>0.4764763834131429</v>
+        <v>0.2664794772134229</v>
       </c>
       <c r="J4">
-        <v>0.03551774972382393</v>
+        <v>0.01509799114763632</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4811173420663692</v>
+        <v>0.7047042438005278</v>
       </c>
       <c r="N4">
-        <v>1.12384518782391</v>
+        <v>0.6356357178414669</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5515188867303209</v>
+        <v>1.624647821983302</v>
       </c>
       <c r="C5">
-        <v>0.1480144567486832</v>
+        <v>0.4863078989426413</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4575522895644504</v>
+        <v>0.215561400871227</v>
       </c>
       <c r="F5">
-        <v>2.049117104669847</v>
+        <v>1.360678519020269</v>
       </c>
       <c r="G5">
-        <v>0.5441177429705988</v>
+        <v>0.5229615580663847</v>
       </c>
       <c r="H5">
-        <v>0.6560521571000066</v>
+        <v>0.3609392647769312</v>
       </c>
       <c r="I5">
-        <v>0.4773803667398759</v>
+        <v>0.2646081844463311</v>
       </c>
       <c r="J5">
-        <v>0.03567868378512173</v>
+        <v>0.01541742634871035</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4738362143664219</v>
+        <v>0.676464191300731</v>
       </c>
       <c r="N5">
-        <v>1.127753973411153</v>
+        <v>0.6452781707057156</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.548035668843653</v>
+        <v>1.612878366878391</v>
       </c>
       <c r="C6">
-        <v>0.1469681663381266</v>
+        <v>0.4828281856262606</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4574749599472021</v>
+        <v>0.2148259864828184</v>
       </c>
       <c r="F6">
-        <v>2.048457198262838</v>
+        <v>1.355147392548062</v>
       </c>
       <c r="G6">
-        <v>0.5437443195986731</v>
+        <v>0.5204922144498738</v>
       </c>
       <c r="H6">
-        <v>0.6561171837615092</v>
+        <v>0.3601312099992668</v>
       </c>
       <c r="I6">
-        <v>0.4775360695581909</v>
+        <v>0.2643105904551639</v>
       </c>
       <c r="J6">
-        <v>0.03570571794238653</v>
+        <v>0.01547112745568002</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.472630415061829</v>
+        <v>0.6717824677325339</v>
       </c>
       <c r="N6">
-        <v>1.128410509986821</v>
+        <v>0.6468955083321681</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5722151362670616</v>
+        <v>1.694620129175206</v>
       </c>
       <c r="C7">
-        <v>0.1542276288275275</v>
+        <v>0.506999496862079</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4580263908089606</v>
+        <v>0.2199517416629213</v>
       </c>
       <c r="F7">
-        <v>2.053150802700358</v>
+        <v>1.393777144898365</v>
       </c>
       <c r="G7">
-        <v>0.5463828466102001</v>
+        <v>0.5377689698377992</v>
       </c>
       <c r="H7">
-        <v>0.6557038326145346</v>
+        <v>0.3658209559047663</v>
       </c>
       <c r="I7">
-        <v>0.4764881994501522</v>
+        <v>0.2664533502970023</v>
       </c>
       <c r="J7">
-        <v>0.03551989926950538</v>
+        <v>0.01510225465393855</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4810189300670302</v>
+        <v>0.7043228727706108</v>
       </c>
       <c r="N7">
-        <v>1.123897401200917</v>
+        <v>0.6357646662963496</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6789630780717744</v>
+        <v>2.05682292326216</v>
       </c>
       <c r="C8">
-        <v>0.1861895507846043</v>
+        <v>0.6142219134726474</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4608224609782354</v>
+        <v>0.2431237883132269</v>
       </c>
       <c r="F8">
-        <v>2.076665307762568</v>
+        <v>1.570517278732439</v>
       </c>
       <c r="G8">
-        <v>0.5591829626984719</v>
+        <v>0.6176473005260164</v>
       </c>
       <c r="H8">
-        <v>0.6548216473436526</v>
+        <v>0.393048711537773</v>
       </c>
       <c r="I8">
-        <v>0.4726797266591767</v>
+        <v>0.2779248743450609</v>
       </c>
       <c r="J8">
-        <v>0.03474522320259954</v>
+        <v>0.01357389461478853</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5185032333260438</v>
+        <v>0.8491428052951946</v>
       </c>
       <c r="N8">
-        <v>1.105070661741674</v>
+        <v>0.589070189327483</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8884497822485855</v>
+        <v>2.775482720784623</v>
       </c>
       <c r="C9">
-        <v>0.248610651525297</v>
+        <v>0.8276278358477498</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4676051683522573</v>
+        <v>0.2908588506488812</v>
       </c>
       <c r="F9">
-        <v>2.132886102750703</v>
+        <v>1.943775121166311</v>
       </c>
       <c r="G9">
-        <v>0.588489437321627</v>
+        <v>0.7900265584113697</v>
       </c>
       <c r="H9">
-        <v>0.6564912915756054</v>
+        <v>0.4552814345852454</v>
       </c>
       <c r="I9">
-        <v>0.4681621083632592</v>
+        <v>0.3087835747257799</v>
       </c>
       <c r="J9">
-        <v>0.03338955243337915</v>
+        <v>0.010971580682412</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5936822029872246</v>
+        <v>1.138957521452113</v>
       </c>
       <c r="N9">
-        <v>1.072069060816144</v>
+        <v>0.5069039655645682</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.042453988174486</v>
+        <v>3.311786901115283</v>
       </c>
       <c r="C10">
-        <v>0.2943253505405323</v>
+        <v>0.9875349330484084</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.473378412918251</v>
+        <v>0.3276501595275434</v>
       </c>
       <c r="F10">
-        <v>2.180397772793668</v>
+        <v>2.238559254533371</v>
       </c>
       <c r="G10">
-        <v>0.6126329785488736</v>
+        <v>0.9290336460375102</v>
       </c>
       <c r="H10">
-        <v>0.659805704984592</v>
+        <v>0.5076616630381068</v>
       </c>
       <c r="I10">
-        <v>0.4666608708035014</v>
+        <v>0.3377111382530344</v>
       </c>
       <c r="J10">
-        <v>0.03249374936624871</v>
+        <v>0.009339411796458919</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6499364827538869</v>
+        <v>1.356930869791938</v>
       </c>
       <c r="N10">
-        <v>1.050214902129827</v>
+        <v>0.4529775142003025</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.112536092403559</v>
+        <v>3.558357766269637</v>
       </c>
       <c r="C11">
-        <v>0.3150928848662602</v>
+        <v>1.061256270958268</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4761759448825629</v>
+        <v>0.3448398879479768</v>
       </c>
       <c r="F11">
-        <v>2.203369647812238</v>
+        <v>2.378180851762096</v>
       </c>
       <c r="G11">
-        <v>0.6241942915337262</v>
+        <v>0.9956355330926101</v>
       </c>
       <c r="H11">
-        <v>0.6617702433513841</v>
+        <v>0.5332487604742226</v>
       </c>
       <c r="I11">
-        <v>0.4663767915339676</v>
+        <v>0.3525132216138758</v>
       </c>
       <c r="J11">
-        <v>0.03210810447428303</v>
+        <v>0.008667344062433635</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6757501602928642</v>
+        <v>1.457557256904636</v>
       </c>
       <c r="N11">
-        <v>1.040793214191964</v>
+        <v>0.4300174659793043</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.139077670180029</v>
+        <v>3.652174051637189</v>
       </c>
       <c r="C12">
-        <v>0.3229530379656183</v>
+        <v>1.089340869888446</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4772598701401662</v>
+        <v>0.3514215492704054</v>
       </c>
       <c r="F12">
-        <v>2.212264519284901</v>
+        <v>2.431942968586526</v>
       </c>
       <c r="G12">
-        <v>0.6286562143237404</v>
+        <v>1.021402833738776</v>
       </c>
       <c r="H12">
-        <v>0.6625801044551594</v>
+        <v>0.5432197247091324</v>
       </c>
       <c r="I12">
-        <v>0.466326900573435</v>
+        <v>0.3583808147669458</v>
       </c>
       <c r="J12">
-        <v>0.03196522549586422</v>
+        <v>0.008423886618648346</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.685557153759774</v>
+        <v>1.495906808986533</v>
       </c>
       <c r="N12">
-        <v>1.037300334876534</v>
+        <v>0.4215652326901775</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.133361341728175</v>
+        <v>3.631948030156138</v>
       </c>
       <c r="C13">
-        <v>0.3212603938201539</v>
+        <v>1.083284417583513</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4770253361367409</v>
+        <v>0.3500007353798296</v>
       </c>
       <c r="F13">
-        <v>2.210340126966557</v>
+        <v>2.420323100384493</v>
       </c>
       <c r="G13">
-        <v>0.627691515836247</v>
+        <v>1.015828014476355</v>
       </c>
       <c r="H13">
-        <v>0.6624027500406697</v>
+        <v>0.541059283701685</v>
       </c>
       <c r="I13">
-        <v>0.4663350747057464</v>
+        <v>0.3571050120974277</v>
       </c>
       <c r="J13">
-        <v>0.03199585645342662</v>
+        <v>0.008475812950943684</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6834436260145509</v>
+        <v>1.487636107400675</v>
       </c>
       <c r="N13">
-        <v>1.038049254843521</v>
+        <v>0.4233745235302244</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.114719626941962</v>
+        <v>3.566066734303831</v>
       </c>
       <c r="C14">
-        <v>0.3157396257266214</v>
+        <v>1.063563276650825</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4762646282069696</v>
+        <v>0.3453798733536146</v>
       </c>
       <c r="F14">
-        <v>2.204097504473282</v>
+        <v>2.382585463416561</v>
       </c>
       <c r="G14">
-        <v>0.6245596907542392</v>
+        <v>0.9977440902519135</v>
       </c>
       <c r="H14">
-        <v>0.6618355482971197</v>
+        <v>0.5340632578010371</v>
       </c>
       <c r="I14">
-        <v>0.4663715290086188</v>
+        <v>0.3529905353206502</v>
       </c>
       <c r="J14">
-        <v>0.03209628640221185</v>
+        <v>0.008647087838687284</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6765563490778419</v>
+        <v>1.460707195054113</v>
       </c>
       <c r="N14">
-        <v>1.040504350724721</v>
+        <v>0.4293171422819277</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.103301413214695</v>
+        <v>3.525772744680978</v>
       </c>
       <c r="C15">
-        <v>0.3123574672617337</v>
+        <v>1.051506231676257</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4758018692215487</v>
+        <v>0.3425590980673192</v>
       </c>
       <c r="F15">
-        <v>2.200299249316657</v>
+        <v>2.359589046963833</v>
       </c>
       <c r="G15">
-        <v>0.6226523064857616</v>
+        <v>0.9867403056945676</v>
       </c>
       <c r="H15">
-        <v>0.6614967146270487</v>
+        <v>0.5298155738011445</v>
       </c>
       <c r="I15">
-        <v>0.4664013802790521</v>
+        <v>0.3505052849345489</v>
       </c>
       <c r="J15">
-        <v>0.0321582140825063</v>
+        <v>0.008753465136641658</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.672341843352612</v>
+        <v>1.444245344557118</v>
       </c>
       <c r="N15">
-        <v>1.04201792785091</v>
+        <v>0.4329892229742782</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.037874408996458</v>
+        <v>3.295731206929986</v>
       </c>
       <c r="C16">
-        <v>0.292967574422704</v>
+        <v>0.982739027207856</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4731990280769622</v>
+        <v>0.3265364830115232</v>
       </c>
       <c r="F16">
-        <v>2.178923892475012</v>
+        <v>2.229553813305799</v>
       </c>
       <c r="G16">
-        <v>0.6118891200861754</v>
+        <v>0.9247540109610384</v>
       </c>
       <c r="H16">
-        <v>0.6596865306965043</v>
+        <v>0.5060272772883252</v>
       </c>
       <c r="I16">
-        <v>0.4666874900090079</v>
+        <v>0.3367790232981562</v>
       </c>
       <c r="J16">
-        <v>0.03251939315157948</v>
+        <v>0.009384825994610324</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6482539749360967</v>
+        <v>1.350387033584553</v>
       </c>
       <c r="N16">
-        <v>1.050841105706787</v>
+        <v>0.454510985482365</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.997743015256674</v>
+        <v>3.155323288032605</v>
       </c>
       <c r="C17">
-        <v>0.2810652583083311</v>
+        <v>0.9408217559651462</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4716460847558821</v>
+        <v>0.3168280582446883</v>
       </c>
       <c r="F17">
-        <v>2.166159164025302</v>
+        <v>2.151261641464387</v>
       </c>
       <c r="G17">
-        <v>0.6054348995154584</v>
+        <v>0.8876323678044287</v>
       </c>
       <c r="H17">
-        <v>0.6586932124970701</v>
+        <v>0.4919040655402682</v>
       </c>
       <c r="I17">
-        <v>0.4669653968835732</v>
+        <v>0.328797005509827</v>
       </c>
       <c r="J17">
-        <v>0.03274657290599281</v>
+        <v>0.009790802229212581</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6335339035435368</v>
+        <v>1.293206976415078</v>
       </c>
       <c r="N17">
-        <v>1.056387098978263</v>
+        <v>0.4681274812375911</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9746628683333824</v>
+        <v>3.074804780934812</v>
       </c>
       <c r="C18">
-        <v>0.2742166953857463</v>
+        <v>0.9168023971768946</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4707689959410217</v>
+        <v>0.3112862209644689</v>
       </c>
       <c r="F18">
-        <v>2.158945071866881</v>
+        <v>2.106743615159715</v>
       </c>
       <c r="G18">
-        <v>0.6017769896696308</v>
+        <v>0.8665938119541465</v>
       </c>
       <c r="H18">
-        <v>0.6581648629972392</v>
+        <v>0.4839444650587978</v>
       </c>
       <c r="I18">
-        <v>0.4671627625335617</v>
+        <v>0.3243588851718968</v>
       </c>
       <c r="J18">
-        <v>0.03287929751995833</v>
+        <v>0.01003087676603887</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6250883398561768</v>
+        <v>1.260454639048831</v>
       </c>
       <c r="N18">
-        <v>1.059625931617624</v>
+        <v>0.4761061759258389</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.96684875134099</v>
+        <v>3.047581839273164</v>
       </c>
       <c r="C19">
-        <v>0.2718974315822891</v>
+        <v>0.9086845881766976</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4704747999075778</v>
+        <v>0.3094168902558607</v>
       </c>
       <c r="F19">
-        <v>2.156524444266452</v>
+        <v>2.091755992394852</v>
       </c>
       <c r="G19">
-        <v>0.6005478025804507</v>
+        <v>0.8595224396636496</v>
       </c>
       <c r="H19">
-        <v>0.657993347462039</v>
+        <v>0.4812767647123906</v>
       </c>
       <c r="I19">
-        <v>0.4672360213563849</v>
+        <v>0.3228817217398046</v>
       </c>
       <c r="J19">
-        <v>0.03292458866615444</v>
+        <v>0.01011326351716546</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.6222324355045146</v>
+        <v>1.24938767688991</v>
       </c>
       <c r="N19">
-        <v>1.060730942920326</v>
+        <v>0.4788323734880358</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.002014829512632</v>
+        <v>3.170244576914854</v>
       </c>
       <c r="C20">
-        <v>0.2823325559845387</v>
+        <v>0.9452743823093783</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4718097300192028</v>
+        <v>0.317857120458541</v>
       </c>
       <c r="F20">
-        <v>2.167504755949565</v>
+        <v>2.159542156501615</v>
       </c>
       <c r="G20">
-        <v>0.6061163280488131</v>
+        <v>0.8915512195724631</v>
       </c>
       <c r="H20">
-        <v>0.6587945027736168</v>
+        <v>0.4933903640146013</v>
       </c>
       <c r="I20">
-        <v>0.4669319275477335</v>
+        <v>0.3296306961622193</v>
       </c>
       <c r="J20">
-        <v>0.03272217626639984</v>
+        <v>0.009746899298316958</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6350987049893746</v>
+        <v>1.299279572504147</v>
       </c>
       <c r="N20">
-        <v>1.055791653991019</v>
+        <v>0.4666626707061354</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.120195073334969</v>
+        <v>3.585404984515776</v>
       </c>
       <c r="C21">
-        <v>0.3173613192815594</v>
+        <v>1.069351065780921</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4764874005158717</v>
+        <v>0.346735110726172</v>
       </c>
       <c r="F21">
-        <v>2.205925792302708</v>
+        <v>2.393644942805238</v>
       </c>
       <c r="G21">
-        <v>0.6254773005959322</v>
+        <v>1.003040414520484</v>
       </c>
       <c r="H21">
-        <v>0.6620003578208298</v>
+        <v>0.5361102725018867</v>
       </c>
       <c r="I21">
-        <v>0.4663592533349075</v>
+        <v>0.354191715780189</v>
       </c>
       <c r="J21">
-        <v>0.03206670192560468</v>
+        <v>0.008596472871675864</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6785784447056074</v>
+        <v>1.468609952036829</v>
       </c>
       <c r="N21">
-        <v>1.03978119529642</v>
+        <v>0.4275649396759711</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.197449958001243</v>
+        <v>3.859369605360939</v>
       </c>
       <c r="C22">
-        <v>0.3402309736580378</v>
+        <v>1.151435852024974</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4796876568279203</v>
+        <v>0.3660336717824251</v>
       </c>
       <c r="F22">
-        <v>2.23217840106318</v>
+        <v>2.551886339943678</v>
       </c>
       <c r="G22">
-        <v>0.6386202226570106</v>
+        <v>1.079124580115973</v>
       </c>
       <c r="H22">
-        <v>0.6644799934041998</v>
+        <v>0.5656874811856198</v>
       </c>
       <c r="I22">
-        <v>0.466321356704988</v>
+        <v>0.3717869932634486</v>
       </c>
       <c r="J22">
-        <v>0.03165671537366599</v>
+        <v>0.007909446981838819</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7071808965346946</v>
+        <v>1.580720235987926</v>
       </c>
       <c r="N22">
-        <v>1.029754138680943</v>
+        <v>0.40343292156685</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.156216176973885</v>
+        <v>3.712883313880013</v>
       </c>
       <c r="C23">
-        <v>0.3280271706014162</v>
+        <v>1.107525025706849</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4779665450012658</v>
+        <v>0.3556922379899135</v>
       </c>
       <c r="F23">
-        <v>2.218062188542376</v>
+        <v>2.46691605649977</v>
       </c>
       <c r="G23">
-        <v>0.6315605698861333</v>
+        <v>1.038200194806549</v>
       </c>
       <c r="H23">
-        <v>0.663121308511009</v>
+        <v>0.5497396909369172</v>
       </c>
       <c r="I23">
-        <v>0.4663106945363182</v>
+        <v>0.3622455612496793</v>
       </c>
       <c r="J23">
-        <v>0.03187384467484033</v>
+        <v>0.008269864979937758</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6918982825354334</v>
+        <v>1.520740976927883</v>
       </c>
       <c r="N23">
-        <v>1.035065757613506</v>
+        <v>0.4161768724968198</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.000083567398633</v>
+        <v>3.163498032455948</v>
       </c>
       <c r="C24">
-        <v>0.281759628662428</v>
+        <v>0.9432611045245665</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4717356970274693</v>
+        <v>0.3173917584125761</v>
       </c>
       <c r="F24">
-        <v>2.166896026001538</v>
+        <v>2.155797006654169</v>
       </c>
       <c r="G24">
-        <v>0.6058080900829452</v>
+        <v>0.8897785670251324</v>
       </c>
       <c r="H24">
-        <v>0.6587485763735117</v>
+        <v>0.4927179121794865</v>
       </c>
       <c r="I24">
-        <v>0.4669469419542267</v>
+        <v>0.3292533167059801</v>
       </c>
       <c r="J24">
-        <v>0.03273319939676078</v>
+        <v>0.009766727095248839</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6343912046613553</v>
+        <v>1.296533776653021</v>
       </c>
       <c r="N24">
-        <v>1.0560606977809</v>
+        <v>0.4673244443294742</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8317615546712886</v>
+        <v>2.579855592188039</v>
       </c>
       <c r="C25">
-        <v>0.2317504768931826</v>
+        <v>0.7694418579936269</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4656313728744621</v>
+        <v>0.2776679930935302</v>
       </c>
       <c r="F25">
-        <v>2.116590172454536</v>
+        <v>1.839522145718291</v>
       </c>
       <c r="G25">
-        <v>0.5801060481821736</v>
+        <v>0.7414371038621113</v>
       </c>
       <c r="H25">
-        <v>0.6556740891696364</v>
+        <v>0.4373750066479829</v>
       </c>
       <c r="I25">
-        <v>0.4690663846528906</v>
+        <v>0.2994264729948384</v>
       </c>
       <c r="J25">
-        <v>0.03373874022975176</v>
+        <v>0.01162949251104095</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5731651910737767</v>
+        <v>1.059784720369848</v>
       </c>
       <c r="N25">
-        <v>1.08057708726961</v>
+        <v>0.5280559574185268</v>
       </c>
       <c r="O25">
         <v>0</v>
